--- a/Senegal/gsenegal_exp.xlsx
+++ b/Senegal/gsenegal_exp.xlsx
@@ -65,13 +65,13 @@
     <t>best_est</t>
   </si>
   <si>
-    <t>date_diff</t>
+    <t>event_length</t>
   </si>
   <si>
     <t>dupnum</t>
   </si>
   <si>
-    <t>date_duration</t>
+    <t>event_date</t>
   </si>
   <si>
     <t>SEN-1997-1-129-1</t>
@@ -2014,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>28</v>
@@ -2076,7 +2076,7 @@
         <v>32</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="s">
         <v>28</v>
@@ -2138,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="s">
         <v>28</v>
@@ -2200,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="s">
         <v>28</v>
@@ -2262,7 +2262,7 @@
         <v>55</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="s">
         <v>28</v>
@@ -2324,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S7" t="s">
         <v>28</v>
@@ -2386,7 +2386,7 @@
         <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S8" t="s">
         <v>48</v>
@@ -2448,7 +2448,7 @@
         <v>6</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S9" t="s">
         <v>49</v>
@@ -2510,7 +2510,7 @@
         <v>6</v>
       </c>
       <c r="R10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S10" t="s">
         <v>50</v>
@@ -2572,7 +2572,7 @@
         <v>6</v>
       </c>
       <c r="R11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S11" t="s">
         <v>51</v>
@@ -2634,7 +2634,7 @@
         <v>6</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S12" t="s">
         <v>52</v>
@@ -2696,7 +2696,7 @@
         <v>6</v>
       </c>
       <c r="R13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S13" t="s">
         <v>53</v>
@@ -2758,7 +2758,7 @@
         <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="s">
         <v>28</v>
@@ -2820,7 +2820,7 @@
         <v>6</v>
       </c>
       <c r="R15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S15" t="s">
         <v>57</v>
@@ -2882,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="R16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S16" t="s">
         <v>58</v>
@@ -2944,7 +2944,7 @@
         <v>6</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S17" t="s">
         <v>59</v>
@@ -3006,7 +3006,7 @@
         <v>6</v>
       </c>
       <c r="R18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S18" t="s">
         <v>60</v>
@@ -3068,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S19" t="s">
         <v>61</v>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="s">
         <v>28</v>
@@ -3192,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="s">
         <v>28</v>
@@ -3254,7 +3254,7 @@
         <v>6</v>
       </c>
       <c r="R22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S22" t="s">
         <v>65</v>
@@ -3316,7 +3316,7 @@
         <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="s">
         <v>28</v>
@@ -3378,7 +3378,7 @@
         <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="s">
         <v>28</v>
@@ -3440,7 +3440,7 @@
         <v>9</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="s">
         <v>28</v>
@@ -3502,7 +3502,7 @@
         <v>26</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="s">
         <v>28</v>
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" t="s">
         <v>28</v>
@@ -3626,7 +3626,7 @@
         <v>30</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" t="s">
         <v>28</v>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" t="s">
         <v>28</v>
@@ -3750,7 +3750,7 @@
         <v>11</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30" t="s">
         <v>28</v>
@@ -3812,7 +3812,7 @@
         <v>11</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" t="s">
         <v>48</v>
@@ -3874,7 +3874,7 @@
         <v>24</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S32" t="s">
         <v>28</v>
@@ -3936,7 +3936,7 @@
         <v>24</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S33" t="s">
         <v>48</v>
@@ -3998,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" t="s">
         <v>28</v>
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="s">
         <v>28</v>
@@ -4122,7 +4122,7 @@
         <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="s">
         <v>28</v>
@@ -4184,7 +4184,7 @@
         <v>98</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S37" t="s">
         <v>28</v>
@@ -4246,7 +4246,7 @@
         <v>98</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S38" t="s">
         <v>48</v>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" t="s">
         <v>28</v>
@@ -4370,7 +4370,7 @@
         <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" t="s">
         <v>28</v>
@@ -4432,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" t="s">
         <v>28</v>
@@ -4494,7 +4494,7 @@
         <v>12</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" t="s">
         <v>28</v>
@@ -4556,7 +4556,7 @@
         <v>13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" t="s">
         <v>28</v>
@@ -4618,7 +4618,7 @@
         <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>28</v>
@@ -4680,7 +4680,7 @@
         <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" t="s">
         <v>28</v>
@@ -4742,7 +4742,7 @@
         <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" t="s">
         <v>28</v>
@@ -4804,7 +4804,7 @@
         <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" t="s">
         <v>28</v>
@@ -4866,7 +4866,7 @@
         <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" t="s">
         <v>28</v>
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" t="s">
         <v>28</v>
@@ -4986,7 +4986,7 @@
         <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" t="s">
         <v>28</v>
@@ -5048,7 +5048,7 @@
         <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" t="s">
         <v>28</v>
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" t="s">
         <v>28</v>
@@ -5172,7 +5172,7 @@
         <v>10</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" t="s">
         <v>28</v>
@@ -5234,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" t="s">
         <v>28</v>
@@ -5296,7 +5296,7 @@
         <v>6</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S55" t="s">
         <v>28</v>
@@ -5358,7 +5358,7 @@
         <v>6</v>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S56" t="s">
         <v>48</v>
@@ -5420,7 +5420,7 @@
         <v>7</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" t="s">
         <v>28</v>
@@ -5482,7 +5482,7 @@
         <v>4</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" t="s">
         <v>28</v>
@@ -5544,7 +5544,7 @@
         <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" t="s">
         <v>28</v>
@@ -5606,7 +5606,7 @@
         <v>11</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" t="s">
         <v>28</v>
@@ -5668,7 +5668,7 @@
         <v>20</v>
       </c>
       <c r="R61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S61" t="s">
         <v>28</v>
@@ -5730,7 +5730,7 @@
         <v>20</v>
       </c>
       <c r="R62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S62" t="s">
         <v>48</v>
@@ -5792,7 +5792,7 @@
         <v>6</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" t="s">
         <v>28</v>
@@ -5852,7 +5852,7 @@
         <v>30</v>
       </c>
       <c r="R64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S64" t="s">
         <v>28</v>
@@ -5912,7 +5912,7 @@
         <v>30</v>
       </c>
       <c r="R65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S65" t="s">
         <v>48</v>
@@ -5974,7 +5974,7 @@
         <v>6</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" t="s">
         <v>28</v>
@@ -6032,7 +6032,7 @@
         <v>2</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67" t="s">
         <v>28</v>
@@ -6094,7 +6094,7 @@
         <v>10</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S68" t="s">
         <v>28</v>
@@ -6156,7 +6156,7 @@
         <v>10</v>
       </c>
       <c r="R69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S69" t="s">
         <v>48</v>
@@ -6218,7 +6218,7 @@
         <v>2</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" t="s">
         <v>28</v>
@@ -6280,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" t="s">
         <v>28</v>
@@ -6342,7 +6342,7 @@
         <v>13</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" t="s">
         <v>28</v>
@@ -6404,7 +6404,7 @@
         <v>3</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" t="s">
         <v>28</v>
@@ -6464,7 +6464,7 @@
         <v>17</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" t="s">
         <v>28</v>
@@ -6526,7 +6526,7 @@
         <v>47</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" t="s">
         <v>28</v>
@@ -6588,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" t="s">
         <v>28</v>
@@ -6648,7 +6648,7 @@
         <v>60</v>
       </c>
       <c r="R77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S77" t="s">
         <v>28</v>
@@ -6708,7 +6708,7 @@
         <v>60</v>
       </c>
       <c r="R78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S78" t="s">
         <v>48</v>
@@ -6768,7 +6768,7 @@
         <v>60</v>
       </c>
       <c r="R79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S79" t="s">
         <v>49</v>
@@ -6830,7 +6830,7 @@
         <v>2</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S80" t="s">
         <v>28</v>
@@ -6890,7 +6890,7 @@
         <v>60</v>
       </c>
       <c r="R81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S81" t="s">
         <v>50</v>
@@ -6952,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82" t="s">
         <v>28</v>
@@ -7014,7 +7014,7 @@
         <v>30</v>
       </c>
       <c r="R83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S83" t="s">
         <v>28</v>
@@ -7076,7 +7076,7 @@
         <v>30</v>
       </c>
       <c r="R84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S84" t="s">
         <v>48</v>
@@ -7138,7 +7138,7 @@
         <v>10</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85" t="s">
         <v>28</v>
@@ -7200,7 +7200,7 @@
         <v>24</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S86" t="s">
         <v>28</v>
@@ -7262,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87" t="s">
         <v>28</v>
@@ -7324,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88" t="s">
         <v>28</v>
@@ -7386,7 +7386,7 @@
         <v>1</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89" t="s">
         <v>28</v>
@@ -7448,7 +7448,7 @@
         <v>19</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S90" t="s">
         <v>28</v>
@@ -7510,7 +7510,7 @@
         <v>1</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S91" t="s">
         <v>28</v>
@@ -7572,7 +7572,7 @@
         <v>3</v>
       </c>
       <c r="R92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S92" t="s">
         <v>28</v>
@@ -7634,7 +7634,7 @@
         <v>3</v>
       </c>
       <c r="R93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S93" t="s">
         <v>48</v>
@@ -7696,7 +7696,7 @@
         <v>2</v>
       </c>
       <c r="R94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S94" t="s">
         <v>28</v>
@@ -7758,7 +7758,7 @@
         <v>1</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95" t="s">
         <v>28</v>
@@ -7820,7 +7820,7 @@
         <v>2</v>
       </c>
       <c r="R96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S96" t="s">
         <v>48</v>
@@ -7882,7 +7882,7 @@
         <v>2</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S97" t="s">
         <v>28</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S98" t="s">
         <v>28</v>
@@ -8006,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S99" t="s">
         <v>28</v>
@@ -8068,7 +8068,7 @@
         <v>2</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S100" t="s">
         <v>28</v>
@@ -8130,7 +8130,7 @@
         <v>2</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101" t="s">
         <v>28</v>
@@ -8192,7 +8192,7 @@
         <v>2</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S102" t="s">
         <v>28</v>
@@ -8254,7 +8254,7 @@
         <v>2</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S103" t="s">
         <v>28</v>
@@ -8316,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S104" t="s">
         <v>28</v>
@@ -8378,7 +8378,7 @@
         <v>1</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S105" t="s">
         <v>28</v>
@@ -8440,7 +8440,7 @@
         <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S106" t="s">
         <v>28</v>
@@ -8498,7 +8498,7 @@
         <v>1</v>
       </c>
       <c r="R107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S107" t="s">
         <v>28</v>
@@ -8560,7 +8560,7 @@
         <v>18</v>
       </c>
       <c r="R108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S108" t="s">
         <v>28</v>
@@ -8622,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S109" t="s">
         <v>28</v>
@@ -8684,7 +8684,7 @@
         <v>3</v>
       </c>
       <c r="R110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S110" t="s">
         <v>28</v>
@@ -8746,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S111" t="s">
         <v>28</v>
@@ -8808,7 +8808,7 @@
         <v>2</v>
       </c>
       <c r="R112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S112" t="s">
         <v>28</v>
@@ -8870,7 +8870,7 @@
         <v>3</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S113" t="s">
         <v>28</v>
@@ -8928,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="R114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S114" t="s">
         <v>28</v>
@@ -8990,7 +8990,7 @@
         <v>1</v>
       </c>
       <c r="R115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S115" t="s">
         <v>28</v>
@@ -9052,7 +9052,7 @@
         <v>3</v>
       </c>
       <c r="R116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S116" t="s">
         <v>28</v>
@@ -9114,7 +9114,7 @@
         <v>2</v>
       </c>
       <c r="R117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S117" t="s">
         <v>28</v>
@@ -9176,7 +9176,7 @@
         <v>2</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S118" t="s">
         <v>28</v>
@@ -9238,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="R119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S119" t="s">
         <v>28</v>
@@ -9300,7 +9300,7 @@
         <v>5</v>
       </c>
       <c r="R120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S120" t="s">
         <v>28</v>
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="R121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S121" t="s">
         <v>28</v>
@@ -9424,7 +9424,7 @@
         <v>4</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122" t="s">
         <v>28</v>
@@ -9486,7 +9486,7 @@
         <v>14</v>
       </c>
       <c r="R123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S123" t="s">
         <v>28</v>
@@ -9546,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="R124" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S124" t="s">
         <v>28</v>
@@ -9606,7 +9606,7 @@
         <v>1</v>
       </c>
       <c r="R125" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S125" t="s">
         <v>28</v>
@@ -9666,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="R126" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S126" t="s">
         <v>48</v>
@@ -9726,7 +9726,7 @@
         <v>1</v>
       </c>
       <c r="R127" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S127" t="s">
         <v>48</v>
@@ -9788,7 +9788,7 @@
         <v>6</v>
       </c>
       <c r="R128" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S128" t="s">
         <v>28</v>
@@ -9850,7 +9850,7 @@
         <v>5</v>
       </c>
       <c r="R129" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S129" t="s">
         <v>28</v>
@@ -9910,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="R130" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S130" t="s">
         <v>49</v>
@@ -9970,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="R131" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S131" t="s">
         <v>49</v>
@@ -10032,7 +10032,7 @@
         <v>6</v>
       </c>
       <c r="R132" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S132" t="s">
         <v>48</v>
@@ -10094,7 +10094,7 @@
         <v>5</v>
       </c>
       <c r="R133" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S133" t="s">
         <v>48</v>
@@ -10154,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="R134" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S134" t="s">
         <v>50</v>
@@ -10214,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="R135" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S135" t="s">
         <v>50</v>
@@ -10276,7 +10276,7 @@
         <v>6</v>
       </c>
       <c r="R136" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S136" t="s">
         <v>49</v>
@@ -10338,7 +10338,7 @@
         <v>5</v>
       </c>
       <c r="R137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S137" t="s">
         <v>49</v>
@@ -10398,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="R138" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S138" t="s">
         <v>51</v>
@@ -10458,7 +10458,7 @@
         <v>1</v>
       </c>
       <c r="R139" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S139" t="s">
         <v>51</v>
@@ -10520,7 +10520,7 @@
         <v>6</v>
       </c>
       <c r="R140" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S140" t="s">
         <v>50</v>
@@ -10582,7 +10582,7 @@
         <v>5</v>
       </c>
       <c r="R141" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S141" t="s">
         <v>50</v>
@@ -10642,7 +10642,7 @@
         <v>1</v>
       </c>
       <c r="R142" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S142" t="s">
         <v>52</v>
@@ -10702,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="R143" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S143" t="s">
         <v>52</v>
@@ -10764,7 +10764,7 @@
         <v>6</v>
       </c>
       <c r="R144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S144" t="s">
         <v>51</v>
@@ -10826,7 +10826,7 @@
         <v>5</v>
       </c>
       <c r="R145" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S145" t="s">
         <v>51</v>
@@ -10886,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="R146" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S146" t="s">
         <v>53</v>
@@ -10946,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="R147" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S147" t="s">
         <v>53</v>
@@ -11008,7 +11008,7 @@
         <v>6</v>
       </c>
       <c r="R148" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S148" t="s">
         <v>52</v>
@@ -11070,7 +11070,7 @@
         <v>5</v>
       </c>
       <c r="R149" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S149" t="s">
         <v>52</v>
@@ -11130,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="R150" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S150" t="s">
         <v>57</v>
@@ -11190,7 +11190,7 @@
         <v>1</v>
       </c>
       <c r="R151" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S151" t="s">
         <v>57</v>
@@ -11252,7 +11252,7 @@
         <v>6</v>
       </c>
       <c r="R152" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S152" t="s">
         <v>53</v>
@@ -11314,7 +11314,7 @@
         <v>5</v>
       </c>
       <c r="R153" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S153" t="s">
         <v>53</v>
@@ -11374,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="R154" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S154" t="s">
         <v>58</v>
@@ -11434,7 +11434,7 @@
         <v>1</v>
       </c>
       <c r="R155" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S155" t="s">
         <v>58</v>
@@ -11496,7 +11496,7 @@
         <v>6</v>
       </c>
       <c r="R156" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S156" t="s">
         <v>57</v>
@@ -11558,7 +11558,7 @@
         <v>5</v>
       </c>
       <c r="R157" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S157" t="s">
         <v>57</v>
@@ -11618,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="R158" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S158" t="s">
         <v>59</v>
@@ -11678,7 +11678,7 @@
         <v>1</v>
       </c>
       <c r="R159" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S159" t="s">
         <v>59</v>
@@ -11740,7 +11740,7 @@
         <v>6</v>
       </c>
       <c r="R160" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S160" t="s">
         <v>58</v>
@@ -11802,7 +11802,7 @@
         <v>5</v>
       </c>
       <c r="R161" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S161" t="s">
         <v>58</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="R162" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S162" t="s">
         <v>60</v>
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="R163" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S163" t="s">
         <v>60</v>
@@ -11982,7 +11982,7 @@
         <v>1</v>
       </c>
       <c r="R164" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S164" t="s">
         <v>61</v>
@@ -12042,7 +12042,7 @@
         <v>1</v>
       </c>
       <c r="R165" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S165" t="s">
         <v>61</v>
@@ -12102,7 +12102,7 @@
         <v>1</v>
       </c>
       <c r="R166" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S166" t="s">
         <v>65</v>
@@ -12162,7 +12162,7 @@
         <v>1</v>
       </c>
       <c r="R167" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S167" t="s">
         <v>65</v>
@@ -12222,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="R168" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S168" t="s">
         <v>270</v>
@@ -12282,7 +12282,7 @@
         <v>1</v>
       </c>
       <c r="R169" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S169" t="s">
         <v>270</v>
@@ -12342,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="R170" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S170" t="s">
         <v>271</v>
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="R171" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S171" t="s">
         <v>271</v>
@@ -12462,7 +12462,7 @@
         <v>1</v>
       </c>
       <c r="R172" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S172" t="s">
         <v>272</v>
@@ -12522,7 +12522,7 @@
         <v>1</v>
       </c>
       <c r="R173" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S173" t="s">
         <v>272</v>
@@ -12582,7 +12582,7 @@
         <v>1</v>
       </c>
       <c r="R174" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S174" t="s">
         <v>273</v>
@@ -12642,7 +12642,7 @@
         <v>1</v>
       </c>
       <c r="R175" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S175" t="s">
         <v>273</v>
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="R176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S176" t="s">
         <v>28</v>
@@ -12764,7 +12764,7 @@
         <v>3</v>
       </c>
       <c r="R177" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S177" t="s">
         <v>28</v>
@@ -12824,7 +12824,7 @@
         <v>3</v>
       </c>
       <c r="R178" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S178" t="s">
         <v>48</v>
@@ -12884,7 +12884,7 @@
         <v>3</v>
       </c>
       <c r="R179" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S179" t="s">
         <v>49</v>
@@ -12944,7 +12944,7 @@
         <v>3</v>
       </c>
       <c r="R180" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S180" t="s">
         <v>50</v>
@@ -13004,7 +13004,7 @@
         <v>3</v>
       </c>
       <c r="R181" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S181" t="s">
         <v>51</v>
@@ -13064,7 +13064,7 @@
         <v>3</v>
       </c>
       <c r="R182" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S182" t="s">
         <v>52</v>
@@ -13126,7 +13126,7 @@
         <v>2</v>
       </c>
       <c r="R183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S183" t="s">
         <v>28</v>
@@ -13186,7 +13186,7 @@
         <v>3</v>
       </c>
       <c r="R184" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S184" t="s">
         <v>53</v>
@@ -13248,7 +13248,7 @@
         <v>2</v>
       </c>
       <c r="R185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S185" t="s">
         <v>48</v>
@@ -13310,7 +13310,7 @@
         <v>2</v>
       </c>
       <c r="R186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S186" t="s">
         <v>49</v>
@@ -13372,7 +13372,7 @@
         <v>2</v>
       </c>
       <c r="R187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S187" t="s">
         <v>28</v>
@@ -13434,7 +13434,7 @@
         <v>6</v>
       </c>
       <c r="R188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S188" t="s">
         <v>28</v>
@@ -13496,7 +13496,7 @@
         <v>2</v>
       </c>
       <c r="R189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S189" t="s">
         <v>28</v>
@@ -13558,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="R190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S190" t="s">
         <v>28</v>
@@ -13620,7 +13620,7 @@
         <v>1</v>
       </c>
       <c r="R191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S191" t="s">
         <v>28</v>
@@ -13682,7 +13682,7 @@
         <v>2</v>
       </c>
       <c r="R192" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S192" t="s">
         <v>28</v>
@@ -13744,7 +13744,7 @@
         <v>2</v>
       </c>
       <c r="R193" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S193" t="s">
         <v>48</v>
@@ -13806,7 +13806,7 @@
         <v>2</v>
       </c>
       <c r="R194" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S194" t="s">
         <v>49</v>
@@ -13868,7 +13868,7 @@
         <v>2</v>
       </c>
       <c r="R195" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S195" t="s">
         <v>50</v>
@@ -13930,7 +13930,7 @@
         <v>2</v>
       </c>
       <c r="R196" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S196" t="s">
         <v>51</v>
@@ -13992,7 +13992,7 @@
         <v>2</v>
       </c>
       <c r="R197" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S197" t="s">
         <v>52</v>
@@ -14054,7 +14054,7 @@
         <v>2</v>
       </c>
       <c r="R198" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S198" t="s">
         <v>53</v>
@@ -14116,7 +14116,7 @@
         <v>2</v>
       </c>
       <c r="R199" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S199" t="s">
         <v>57</v>
@@ -14178,7 +14178,7 @@
         <v>2</v>
       </c>
       <c r="R200" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S200" t="s">
         <v>58</v>
@@ -14240,7 +14240,7 @@
         <v>2</v>
       </c>
       <c r="R201" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S201" t="s">
         <v>59</v>
@@ -14302,7 +14302,7 @@
         <v>2</v>
       </c>
       <c r="R202" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S202" t="s">
         <v>60</v>
@@ -14364,7 +14364,7 @@
         <v>2</v>
       </c>
       <c r="R203" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S203" t="s">
         <v>61</v>
@@ -14426,7 +14426,7 @@
         <v>2</v>
       </c>
       <c r="R204" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S204" t="s">
         <v>65</v>
@@ -14488,7 +14488,7 @@
         <v>2</v>
       </c>
       <c r="R205" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S205" t="s">
         <v>270</v>
@@ -14550,7 +14550,7 @@
         <v>2</v>
       </c>
       <c r="R206" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S206" t="s">
         <v>271</v>
@@ -14612,7 +14612,7 @@
         <v>1</v>
       </c>
       <c r="R207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S207" t="s">
         <v>28</v>
@@ -14674,7 +14674,7 @@
         <v>2</v>
       </c>
       <c r="R208" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S208" t="s">
         <v>272</v>
@@ -14736,7 +14736,7 @@
         <v>2</v>
       </c>
       <c r="R209" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S209" t="s">
         <v>273</v>
@@ -14798,7 +14798,7 @@
         <v>2</v>
       </c>
       <c r="R210" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S210" t="s">
         <v>299</v>
@@ -14860,7 +14860,7 @@
         <v>2</v>
       </c>
       <c r="R211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S211" t="s">
         <v>28</v>
@@ -14922,7 +14922,7 @@
         <v>1</v>
       </c>
       <c r="R212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S212" t="s">
         <v>28</v>
@@ -14984,7 +14984,7 @@
         <v>2</v>
       </c>
       <c r="R213" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S213" t="s">
         <v>303</v>
@@ -15046,7 +15046,7 @@
         <v>2</v>
       </c>
       <c r="R214" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S214" t="s">
         <v>304</v>
@@ -15108,7 +15108,7 @@
         <v>2</v>
       </c>
       <c r="R215" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S215" t="s">
         <v>305</v>
@@ -15170,7 +15170,7 @@
         <v>2</v>
       </c>
       <c r="R216" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S216" t="s">
         <v>306</v>
@@ -15232,7 +15232,7 @@
         <v>2</v>
       </c>
       <c r="R217" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S217" t="s">
         <v>307</v>
@@ -15294,7 +15294,7 @@
         <v>2</v>
       </c>
       <c r="R218" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S218" t="s">
         <v>308</v>
@@ -15356,7 +15356,7 @@
         <v>2</v>
       </c>
       <c r="R219" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S219" t="s">
         <v>309</v>
@@ -15418,7 +15418,7 @@
         <v>2</v>
       </c>
       <c r="R220" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S220" t="s">
         <v>310</v>
@@ -15480,7 +15480,7 @@
         <v>2</v>
       </c>
       <c r="R221" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S221" t="s">
         <v>311</v>
@@ -15542,7 +15542,7 @@
         <v>2</v>
       </c>
       <c r="R222" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S222" t="s">
         <v>312</v>
@@ -15604,7 +15604,7 @@
         <v>2</v>
       </c>
       <c r="R223" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S223" t="s">
         <v>313</v>
@@ -15666,7 +15666,7 @@
         <v>2</v>
       </c>
       <c r="R224" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S224" t="s">
         <v>314</v>
@@ -15728,7 +15728,7 @@
         <v>2</v>
       </c>
       <c r="R225" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S225" t="s">
         <v>315</v>
@@ -15790,7 +15790,7 @@
         <v>2</v>
       </c>
       <c r="R226" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S226" t="s">
         <v>316</v>
@@ -15852,7 +15852,7 @@
         <v>2</v>
       </c>
       <c r="R227" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S227" t="s">
         <v>317</v>
@@ -15914,7 +15914,7 @@
         <v>2</v>
       </c>
       <c r="R228" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S228" t="s">
         <v>318</v>
@@ -15976,7 +15976,7 @@
         <v>2</v>
       </c>
       <c r="R229" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S229" t="s">
         <v>319</v>
@@ -16038,7 +16038,7 @@
         <v>2</v>
       </c>
       <c r="R230" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S230" t="s">
         <v>320</v>
@@ -16100,7 +16100,7 @@
         <v>2</v>
       </c>
       <c r="R231" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S231" t="s">
         <v>321</v>
@@ -16162,7 +16162,7 @@
         <v>5</v>
       </c>
       <c r="R232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S232" t="s">
         <v>28</v>
@@ -16224,7 +16224,7 @@
         <v>2</v>
       </c>
       <c r="R233" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S233" t="s">
         <v>324</v>
@@ -16286,7 +16286,7 @@
         <v>2</v>
       </c>
       <c r="R234" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S234" t="s">
         <v>325</v>
@@ -16348,7 +16348,7 @@
         <v>5</v>
       </c>
       <c r="R235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S235" t="s">
         <v>28</v>
@@ -16410,7 +16410,7 @@
         <v>2</v>
       </c>
       <c r="R236" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S236" t="s">
         <v>328</v>
@@ -16472,7 +16472,7 @@
         <v>2</v>
       </c>
       <c r="R237" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S237" t="s">
         <v>329</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="R238" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S238" t="s">
         <v>330</v>
@@ -16596,7 +16596,7 @@
         <v>2</v>
       </c>
       <c r="R239" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S239" t="s">
         <v>331</v>
@@ -16658,7 +16658,7 @@
         <v>2</v>
       </c>
       <c r="R240" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S240" t="s">
         <v>332</v>
@@ -16720,7 +16720,7 @@
         <v>2</v>
       </c>
       <c r="R241" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S241" t="s">
         <v>333</v>
@@ -16782,7 +16782,7 @@
         <v>2</v>
       </c>
       <c r="R242" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S242" t="s">
         <v>334</v>
@@ -16844,7 +16844,7 @@
         <v>2</v>
       </c>
       <c r="R243" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S243" t="s">
         <v>335</v>
@@ -16906,7 +16906,7 @@
         <v>2</v>
       </c>
       <c r="R244" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S244" t="s">
         <v>336</v>
@@ -16968,7 +16968,7 @@
         <v>2</v>
       </c>
       <c r="R245" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S245" t="s">
         <v>337</v>
@@ -17030,7 +17030,7 @@
         <v>2</v>
       </c>
       <c r="R246" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S246" t="s">
         <v>338</v>
@@ -17092,7 +17092,7 @@
         <v>2</v>
       </c>
       <c r="R247" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S247" t="s">
         <v>339</v>
@@ -17154,7 +17154,7 @@
         <v>2</v>
       </c>
       <c r="R248" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S248" t="s">
         <v>340</v>
@@ -17216,7 +17216,7 @@
         <v>2</v>
       </c>
       <c r="R249" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S249" t="s">
         <v>341</v>
@@ -17278,7 +17278,7 @@
         <v>2</v>
       </c>
       <c r="R250" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S250" t="s">
         <v>342</v>
@@ -17340,7 +17340,7 @@
         <v>2</v>
       </c>
       <c r="R251" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S251" t="s">
         <v>343</v>
@@ -17402,7 +17402,7 @@
         <v>2</v>
       </c>
       <c r="R252" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S252" t="s">
         <v>344</v>
@@ -17464,7 +17464,7 @@
         <v>2</v>
       </c>
       <c r="R253" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S253" t="s">
         <v>345</v>
@@ -17526,7 +17526,7 @@
         <v>2</v>
       </c>
       <c r="R254" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S254" t="s">
         <v>346</v>
@@ -17588,7 +17588,7 @@
         <v>2</v>
       </c>
       <c r="R255" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S255" t="s">
         <v>347</v>
@@ -17650,7 +17650,7 @@
         <v>2</v>
       </c>
       <c r="R256" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S256" t="s">
         <v>348</v>
@@ -17712,7 +17712,7 @@
         <v>2</v>
       </c>
       <c r="R257" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S257" t="s">
         <v>349</v>
@@ -17774,7 +17774,7 @@
         <v>2</v>
       </c>
       <c r="R258" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S258" t="s">
         <v>350</v>
@@ -17836,7 +17836,7 @@
         <v>2</v>
       </c>
       <c r="R259" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S259" t="s">
         <v>351</v>
@@ -17898,7 +17898,7 @@
         <v>2</v>
       </c>
       <c r="R260" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S260" t="s">
         <v>352</v>
@@ -17960,7 +17960,7 @@
         <v>2</v>
       </c>
       <c r="R261" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S261" t="s">
         <v>353</v>
@@ -18022,7 +18022,7 @@
         <v>6</v>
       </c>
       <c r="R262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S262" t="s">
         <v>28</v>
@@ -18084,7 +18084,7 @@
         <v>8</v>
       </c>
       <c r="R263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S263" t="s">
         <v>28</v>
@@ -18146,7 +18146,7 @@
         <v>2</v>
       </c>
       <c r="R264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S264" t="s">
         <v>28</v>
@@ -18208,7 +18208,7 @@
         <v>2</v>
       </c>
       <c r="R265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S265" t="s">
         <v>28</v>
@@ -18266,7 +18266,7 @@
         <v>6</v>
       </c>
       <c r="R266" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S266" t="s">
         <v>28</v>
@@ -18324,7 +18324,7 @@
         <v>6</v>
       </c>
       <c r="R267" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S267" t="s">
         <v>48</v>
@@ -18382,7 +18382,7 @@
         <v>6</v>
       </c>
       <c r="R268" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S268" t="s">
         <v>49</v>
@@ -18440,7 +18440,7 @@
         <v>6</v>
       </c>
       <c r="R269" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S269" t="s">
         <v>50</v>
@@ -18498,7 +18498,7 @@
         <v>6</v>
       </c>
       <c r="R270" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S270" t="s">
         <v>51</v>
@@ -18556,7 +18556,7 @@
         <v>6</v>
       </c>
       <c r="R271" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S271" t="s">
         <v>52</v>
@@ -18614,7 +18614,7 @@
         <v>6</v>
       </c>
       <c r="R272" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S272" t="s">
         <v>53</v>
@@ -18676,7 +18676,7 @@
         <v>2</v>
       </c>
       <c r="R273" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S273" t="s">
         <v>28</v>
@@ -18738,7 +18738,7 @@
         <v>2</v>
       </c>
       <c r="R274" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S274" t="s">
         <v>48</v>
@@ -18800,7 +18800,7 @@
         <v>2</v>
       </c>
       <c r="R275" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S275" t="s">
         <v>49</v>
@@ -18862,7 +18862,7 @@
         <v>1</v>
       </c>
       <c r="R276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S276" t="s">
         <v>28</v>
@@ -18924,7 +18924,7 @@
         <v>15</v>
       </c>
       <c r="R277" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S277" t="s">
         <v>28</v>
@@ -18986,7 +18986,7 @@
         <v>7</v>
       </c>
       <c r="R278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S278" t="s">
         <v>28</v>
@@ -19048,7 +19048,7 @@
         <v>15</v>
       </c>
       <c r="R279" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S279" t="s">
         <v>28</v>
@@ -19110,7 +19110,7 @@
         <v>15</v>
       </c>
       <c r="R280" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S280" t="s">
         <v>48</v>
@@ -19172,7 +19172,7 @@
         <v>15</v>
       </c>
       <c r="R281" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S281" t="s">
         <v>48</v>
@@ -19234,7 +19234,7 @@
         <v>15</v>
       </c>
       <c r="R282" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S282" t="s">
         <v>49</v>
@@ -19296,7 +19296,7 @@
         <v>15</v>
       </c>
       <c r="R283" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S283" t="s">
         <v>49</v>
@@ -19358,7 +19358,7 @@
         <v>15</v>
       </c>
       <c r="R284" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S284" t="s">
         <v>50</v>
@@ -19420,7 +19420,7 @@
         <v>15</v>
       </c>
       <c r="R285" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S285" t="s">
         <v>50</v>
@@ -19482,7 +19482,7 @@
         <v>15</v>
       </c>
       <c r="R286" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S286" t="s">
         <v>51</v>
@@ -19544,7 +19544,7 @@
         <v>15</v>
       </c>
       <c r="R287" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S287" t="s">
         <v>51</v>
@@ -19606,7 +19606,7 @@
         <v>15</v>
       </c>
       <c r="R288" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S288" t="s">
         <v>52</v>
@@ -19668,7 +19668,7 @@
         <v>15</v>
       </c>
       <c r="R289" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S289" t="s">
         <v>52</v>
@@ -19730,7 +19730,7 @@
         <v>15</v>
       </c>
       <c r="R290" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S290" t="s">
         <v>53</v>
@@ -19792,7 +19792,7 @@
         <v>15</v>
       </c>
       <c r="R291" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S291" t="s">
         <v>53</v>
@@ -19854,7 +19854,7 @@
         <v>15</v>
       </c>
       <c r="R292" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S292" t="s">
         <v>57</v>
@@ -19916,7 +19916,7 @@
         <v>15</v>
       </c>
       <c r="R293" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S293" t="s">
         <v>57</v>
@@ -19978,7 +19978,7 @@
         <v>15</v>
       </c>
       <c r="R294" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S294" t="s">
         <v>58</v>
@@ -20040,7 +20040,7 @@
         <v>15</v>
       </c>
       <c r="R295" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S295" t="s">
         <v>58</v>
@@ -20102,7 +20102,7 @@
         <v>15</v>
       </c>
       <c r="R296" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S296" t="s">
         <v>59</v>
@@ -20164,7 +20164,7 @@
         <v>15</v>
       </c>
       <c r="R297" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S297" t="s">
         <v>59</v>
@@ -20226,7 +20226,7 @@
         <v>15</v>
       </c>
       <c r="R298" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S298" t="s">
         <v>60</v>
@@ -20288,7 +20288,7 @@
         <v>15</v>
       </c>
       <c r="R299" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S299" t="s">
         <v>60</v>
@@ -20350,7 +20350,7 @@
         <v>15</v>
       </c>
       <c r="R300" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S300" t="s">
         <v>61</v>
@@ -20412,7 +20412,7 @@
         <v>15</v>
       </c>
       <c r="R301" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S301" t="s">
         <v>61</v>
@@ -20474,7 +20474,7 @@
         <v>15</v>
       </c>
       <c r="R302" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S302" t="s">
         <v>65</v>
@@ -20536,7 +20536,7 @@
         <v>15</v>
       </c>
       <c r="R303" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S303" t="s">
         <v>65</v>
@@ -20598,7 +20598,7 @@
         <v>15</v>
       </c>
       <c r="R304" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S304" t="s">
         <v>270</v>
@@ -20660,7 +20660,7 @@
         <v>15</v>
       </c>
       <c r="R305" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S305" t="s">
         <v>270</v>
@@ -20722,7 +20722,7 @@
         <v>15</v>
       </c>
       <c r="R306" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S306" t="s">
         <v>271</v>
@@ -20784,7 +20784,7 @@
         <v>15</v>
       </c>
       <c r="R307" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S307" t="s">
         <v>271</v>
@@ -20846,7 +20846,7 @@
         <v>1</v>
       </c>
       <c r="R308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S308" t="s">
         <v>28</v>
@@ -20908,7 +20908,7 @@
         <v>1</v>
       </c>
       <c r="R309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S309" t="s">
         <v>28</v>
@@ -20970,7 +20970,7 @@
         <v>3</v>
       </c>
       <c r="R310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S310" t="s">
         <v>28</v>
@@ -21032,7 +21032,7 @@
         <v>1</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S311" t="s">
         <v>28</v>
@@ -21094,7 +21094,7 @@
         <v>24</v>
       </c>
       <c r="R312" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S312" t="s">
         <v>28</v>
@@ -21156,7 +21156,7 @@
         <v>24</v>
       </c>
       <c r="R313" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S313" t="s">
         <v>48</v>
@@ -21218,7 +21218,7 @@
         <v>24</v>
       </c>
       <c r="R314" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S314" t="s">
         <v>49</v>
@@ -21280,7 +21280,7 @@
         <v>24</v>
       </c>
       <c r="R315" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S315" t="s">
         <v>50</v>
@@ -21342,7 +21342,7 @@
         <v>24</v>
       </c>
       <c r="R316" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S316" t="s">
         <v>51</v>
@@ -21404,7 +21404,7 @@
         <v>24</v>
       </c>
       <c r="R317" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S317" t="s">
         <v>52</v>
@@ -21466,7 +21466,7 @@
         <v>24</v>
       </c>
       <c r="R318" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S318" t="s">
         <v>53</v>
@@ -21528,7 +21528,7 @@
         <v>24</v>
       </c>
       <c r="R319" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S319" t="s">
         <v>57</v>
@@ -21590,7 +21590,7 @@
         <v>100</v>
       </c>
       <c r="R320" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S320" t="s">
         <v>28</v>
@@ -21652,7 +21652,7 @@
         <v>100</v>
       </c>
       <c r="R321" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S321" t="s">
         <v>48</v>
@@ -21714,7 +21714,7 @@
         <v>100</v>
       </c>
       <c r="R322" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S322" t="s">
         <v>49</v>
@@ -21776,7 +21776,7 @@
         <v>100</v>
       </c>
       <c r="R323" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S323" t="s">
         <v>50</v>
@@ -21838,7 +21838,7 @@
         <v>100</v>
       </c>
       <c r="R324" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S324" t="s">
         <v>51</v>
@@ -21900,7 +21900,7 @@
         <v>100</v>
       </c>
       <c r="R325" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S325" t="s">
         <v>52</v>
@@ -21962,7 +21962,7 @@
         <v>100</v>
       </c>
       <c r="R326" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S326" t="s">
         <v>53</v>
@@ -22024,7 +22024,7 @@
         <v>1</v>
       </c>
       <c r="R327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S327" t="s">
         <v>28</v>
@@ -22086,7 +22086,7 @@
         <v>1</v>
       </c>
       <c r="R328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S328" t="s">
         <v>28</v>
@@ -22148,7 +22148,7 @@
         <v>2</v>
       </c>
       <c r="R329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S329" t="s">
         <v>28</v>
@@ -22210,7 +22210,7 @@
         <v>1</v>
       </c>
       <c r="R330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S330" t="s">
         <v>28</v>
@@ -22272,7 +22272,7 @@
         <v>1</v>
       </c>
       <c r="R331" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S331" t="s">
         <v>28</v>
@@ -22334,7 +22334,7 @@
         <v>1</v>
       </c>
       <c r="R332" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S332" t="s">
         <v>48</v>
@@ -22396,7 +22396,7 @@
         <v>1</v>
       </c>
       <c r="R333" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S333" t="s">
         <v>49</v>
@@ -22458,7 +22458,7 @@
         <v>1</v>
       </c>
       <c r="R334" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S334" t="s">
         <v>50</v>
@@ -22520,7 +22520,7 @@
         <v>1</v>
       </c>
       <c r="R335" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S335" t="s">
         <v>51</v>
@@ -22582,7 +22582,7 @@
         <v>1</v>
       </c>
       <c r="R336" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S336" t="s">
         <v>52</v>
@@ -22644,7 +22644,7 @@
         <v>1</v>
       </c>
       <c r="R337" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S337" t="s">
         <v>53</v>
@@ -22706,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="R338" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S338" t="s">
         <v>57</v>
@@ -22768,7 +22768,7 @@
         <v>1</v>
       </c>
       <c r="R339" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S339" t="s">
         <v>58</v>
@@ -22830,7 +22830,7 @@
         <v>1</v>
       </c>
       <c r="R340" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S340" t="s">
         <v>59</v>
@@ -22892,7 +22892,7 @@
         <v>9</v>
       </c>
       <c r="R341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S341" t="s">
         <v>28</v>
@@ -22954,7 +22954,7 @@
         <v>1</v>
       </c>
       <c r="R342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S342" t="s">
         <v>28</v>
@@ -23016,7 +23016,7 @@
         <v>1</v>
       </c>
       <c r="R343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S343" t="s">
         <v>28</v>
@@ -23078,7 +23078,7 @@
         <v>3</v>
       </c>
       <c r="R344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S344" t="s">
         <v>28</v>
@@ -23140,7 +23140,7 @@
         <v>2</v>
       </c>
       <c r="R345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S345" t="s">
         <v>28</v>
@@ -23202,7 +23202,7 @@
         <v>1</v>
       </c>
       <c r="R346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S346" t="s">
         <v>28</v>
@@ -23260,7 +23260,7 @@
         <v>1</v>
       </c>
       <c r="R347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S347" t="s">
         <v>28</v>
@@ -23322,7 +23322,7 @@
         <v>6</v>
       </c>
       <c r="R348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S348" t="s">
         <v>28</v>
@@ -23384,7 +23384,7 @@
         <v>1</v>
       </c>
       <c r="R349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S349" t="s">
         <v>28</v>
@@ -23442,7 +23442,7 @@
         <v>1</v>
       </c>
       <c r="R350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S350" t="s">
         <v>28</v>
@@ -23500,7 +23500,7 @@
         <v>1</v>
       </c>
       <c r="R351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S351" t="s">
         <v>28</v>
@@ -23562,7 +23562,7 @@
         <v>1</v>
       </c>
       <c r="R352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S352" t="s">
         <v>28</v>
@@ -23624,7 +23624,7 @@
         <v>1</v>
       </c>
       <c r="R353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S353" t="s">
         <v>28</v>
@@ -23686,7 +23686,7 @@
         <v>1</v>
       </c>
       <c r="R354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S354" t="s">
         <v>28</v>
@@ -23748,7 +23748,7 @@
         <v>2</v>
       </c>
       <c r="R355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S355" t="s">
         <v>28</v>
@@ -23810,7 +23810,7 @@
         <v>1</v>
       </c>
       <c r="R356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S356" t="s">
         <v>28</v>
@@ -23872,7 +23872,7 @@
         <v>2</v>
       </c>
       <c r="R357" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S357" t="s">
         <v>28</v>
@@ -23934,7 +23934,7 @@
         <v>2</v>
       </c>
       <c r="R358" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S358" t="s">
         <v>48</v>
@@ -23996,7 +23996,7 @@
         <v>2</v>
       </c>
       <c r="R359" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S359" t="s">
         <v>49</v>
@@ -24058,7 +24058,7 @@
         <v>2</v>
       </c>
       <c r="R360" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S360" t="s">
         <v>50</v>
@@ -24120,7 +24120,7 @@
         <v>2</v>
       </c>
       <c r="R361" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S361" t="s">
         <v>51</v>
@@ -24182,7 +24182,7 @@
         <v>1</v>
       </c>
       <c r="R362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S362" t="s">
         <v>28</v>
@@ -24244,7 +24244,7 @@
         <v>1</v>
       </c>
       <c r="R363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S363" t="s">
         <v>28</v>
@@ -24306,7 +24306,7 @@
         <v>3</v>
       </c>
       <c r="R364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S364" t="s">
         <v>28</v>
@@ -24368,7 +24368,7 @@
         <v>1</v>
       </c>
       <c r="R365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S365" t="s">
         <v>28</v>
@@ -24430,7 +24430,7 @@
         <v>7</v>
       </c>
       <c r="R366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S366" t="s">
         <v>28</v>
@@ -24492,7 +24492,7 @@
         <v>2</v>
       </c>
       <c r="R367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S367" t="s">
         <v>28</v>
@@ -24550,7 +24550,7 @@
         <v>3</v>
       </c>
       <c r="R368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S368" t="s">
         <v>28</v>
@@ -24612,7 +24612,7 @@
         <v>3</v>
       </c>
       <c r="R369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S369" t="s">
         <v>28</v>
@@ -24674,7 +24674,7 @@
         <v>1</v>
       </c>
       <c r="R370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S370" t="s">
         <v>28</v>
@@ -24732,7 +24732,7 @@
         <v>2</v>
       </c>
       <c r="R371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S371" t="s">
         <v>28</v>
@@ -24794,7 +24794,7 @@
         <v>2</v>
       </c>
       <c r="R372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S372" t="s">
         <v>28</v>
@@ -24856,7 +24856,7 @@
         <v>1</v>
       </c>
       <c r="R373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S373" t="s">
         <v>28</v>
@@ -24918,7 +24918,7 @@
         <v>1</v>
       </c>
       <c r="R374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S374" t="s">
         <v>28</v>
@@ -24976,7 +24976,7 @@
         <v>1</v>
       </c>
       <c r="R375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S375" t="s">
         <v>28</v>
@@ -25038,7 +25038,7 @@
         <v>10</v>
       </c>
       <c r="R376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S376" t="s">
         <v>28</v>
@@ -25096,7 +25096,7 @@
         <v>0</v>
       </c>
       <c r="R377" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S377" t="s">
         <v>28</v>
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="R378" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S378" t="s">
         <v>48</v>
@@ -25212,7 +25212,7 @@
         <v>0</v>
       </c>
       <c r="R379" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S379" t="s">
         <v>49</v>
@@ -25270,7 +25270,7 @@
         <v>0</v>
       </c>
       <c r="R380" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S380" t="s">
         <v>50</v>
@@ -25328,7 +25328,7 @@
         <v>0</v>
       </c>
       <c r="R381" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S381" t="s">
         <v>51</v>
@@ -25386,7 +25386,7 @@
         <v>0</v>
       </c>
       <c r="R382" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S382" t="s">
         <v>52</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="R383" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S383" t="s">
         <v>53</v>
@@ -25502,7 +25502,7 @@
         <v>0</v>
       </c>
       <c r="R384" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S384" t="s">
         <v>57</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="R385" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S385" t="s">
         <v>58</v>
@@ -25618,7 +25618,7 @@
         <v>0</v>
       </c>
       <c r="R386" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S386" t="s">
         <v>59</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="R387" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S387" t="s">
         <v>60</v>
@@ -25734,7 +25734,7 @@
         <v>0</v>
       </c>
       <c r="R388" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S388" t="s">
         <v>61</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="R389" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S389" t="s">
         <v>65</v>
@@ -25854,7 +25854,7 @@
         <v>4</v>
       </c>
       <c r="R390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S390" t="s">
         <v>28</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R391" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S391" t="s">
         <v>270</v>
@@ -25970,7 +25970,7 @@
         <v>1</v>
       </c>
       <c r="R392" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S392" t="s">
         <v>28</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="R393" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S393" t="s">
         <v>271</v>
@@ -26086,7 +26086,7 @@
         <v>1</v>
       </c>
       <c r="R394" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S394" t="s">
         <v>48</v>
@@ -26144,7 +26144,7 @@
         <v>0</v>
       </c>
       <c r="R395" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S395" t="s">
         <v>272</v>
@@ -26202,7 +26202,7 @@
         <v>1</v>
       </c>
       <c r="R396" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S396" t="s">
         <v>49</v>
@@ -26260,7 +26260,7 @@
         <v>0</v>
       </c>
       <c r="R397" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S397" t="s">
         <v>273</v>
@@ -26318,7 +26318,7 @@
         <v>1</v>
       </c>
       <c r="R398" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S398" t="s">
         <v>50</v>
@@ -26376,7 +26376,7 @@
         <v>0</v>
       </c>
       <c r="R399" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S399" t="s">
         <v>299</v>
@@ -26434,7 +26434,7 @@
         <v>1</v>
       </c>
       <c r="R400" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S400" t="s">
         <v>51</v>
@@ -26492,7 +26492,7 @@
         <v>0</v>
       </c>
       <c r="R401" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S401" t="s">
         <v>303</v>
@@ -26550,7 +26550,7 @@
         <v>1</v>
       </c>
       <c r="R402" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S402" t="s">
         <v>52</v>
@@ -26608,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="R403" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S403" t="s">
         <v>304</v>
@@ -26670,7 +26670,7 @@
         <v>6</v>
       </c>
       <c r="R404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S404" t="s">
         <v>28</v>
@@ -26728,7 +26728,7 @@
         <v>0</v>
       </c>
       <c r="R405" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S405" t="s">
         <v>305</v>
@@ -26786,7 +26786,7 @@
         <v>0</v>
       </c>
       <c r="R406" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S406" t="s">
         <v>306</v>
@@ -26844,7 +26844,7 @@
         <v>0</v>
       </c>
       <c r="R407" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S407" t="s">
         <v>307</v>
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="R408" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S408" t="s">
         <v>308</v>
@@ -26960,7 +26960,7 @@
         <v>0</v>
       </c>
       <c r="R409" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S409" t="s">
         <v>309</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="R410" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S410" t="s">
         <v>310</v>
@@ -27076,7 +27076,7 @@
         <v>0</v>
       </c>
       <c r="R411" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S411" t="s">
         <v>311</v>
@@ -27134,7 +27134,7 @@
         <v>0</v>
       </c>
       <c r="R412" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S412" t="s">
         <v>312</v>
@@ -27192,7 +27192,7 @@
         <v>0</v>
       </c>
       <c r="R413" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S413" t="s">
         <v>313</v>
@@ -27250,7 +27250,7 @@
         <v>0</v>
       </c>
       <c r="R414" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S414" t="s">
         <v>314</v>
@@ -27312,7 +27312,7 @@
         <v>1</v>
       </c>
       <c r="R415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S415" t="s">
         <v>28</v>
@@ -27374,7 +27374,7 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S416" t="s">
         <v>28</v>
@@ -27436,7 +27436,7 @@
         <v>2</v>
       </c>
       <c r="R417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S417" t="s">
         <v>28</v>
@@ -27494,7 +27494,7 @@
         <v>2</v>
       </c>
       <c r="R418" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S418" t="s">
         <v>28</v>
@@ -27552,7 +27552,7 @@
         <v>2</v>
       </c>
       <c r="R419" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S419" t="s">
         <v>48</v>
@@ -27610,7 +27610,7 @@
         <v>2</v>
       </c>
       <c r="R420" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S420" t="s">
         <v>49</v>
@@ -27668,7 +27668,7 @@
         <v>2</v>
       </c>
       <c r="R421" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S421" t="s">
         <v>50</v>
@@ -27726,7 +27726,7 @@
         <v>2</v>
       </c>
       <c r="R422" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S422" t="s">
         <v>51</v>
@@ -27784,7 +27784,7 @@
         <v>2</v>
       </c>
       <c r="R423" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S423" t="s">
         <v>52</v>
@@ -27842,7 +27842,7 @@
         <v>2</v>
       </c>
       <c r="R424" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S424" t="s">
         <v>53</v>
@@ -27900,7 +27900,7 @@
         <v>2</v>
       </c>
       <c r="R425" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S425" t="s">
         <v>57</v>
@@ -27958,7 +27958,7 @@
         <v>2</v>
       </c>
       <c r="R426" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S426" t="s">
         <v>58</v>
@@ -28016,7 +28016,7 @@
         <v>2</v>
       </c>
       <c r="R427" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S427" t="s">
         <v>59</v>
@@ -28074,7 +28074,7 @@
         <v>2</v>
       </c>
       <c r="R428" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S428" t="s">
         <v>60</v>
@@ -28136,7 +28136,7 @@
         <v>4</v>
       </c>
       <c r="R429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S429" t="s">
         <v>28</v>
@@ -28194,7 +28194,7 @@
         <v>2</v>
       </c>
       <c r="R430" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S430" t="s">
         <v>61</v>
@@ -28252,7 +28252,7 @@
         <v>2</v>
       </c>
       <c r="R431" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S431" t="s">
         <v>65</v>
@@ -28310,7 +28310,7 @@
         <v>1</v>
       </c>
       <c r="R432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S432" t="s">
         <v>28</v>
@@ -28368,7 +28368,7 @@
         <v>2</v>
       </c>
       <c r="R433" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S433" t="s">
         <v>270</v>
@@ -28426,7 +28426,7 @@
         <v>2</v>
       </c>
       <c r="R434" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S434" t="s">
         <v>271</v>
@@ -28488,7 +28488,7 @@
         <v>2</v>
       </c>
       <c r="R435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S435" t="s">
         <v>28</v>
@@ -28550,7 +28550,7 @@
         <v>3</v>
       </c>
       <c r="R436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S436" t="s">
         <v>28</v>
@@ -28612,7 +28612,7 @@
         <v>1</v>
       </c>
       <c r="R437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S437" t="s">
         <v>28</v>
@@ -28674,7 +28674,7 @@
         <v>3</v>
       </c>
       <c r="R438" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S438" t="s">
         <v>28</v>
@@ -28736,7 +28736,7 @@
         <v>3</v>
       </c>
       <c r="R439" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S439" t="s">
         <v>48</v>
@@ -28798,7 +28798,7 @@
         <v>3</v>
       </c>
       <c r="R440" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S440" t="s">
         <v>49</v>
@@ -28860,7 +28860,7 @@
         <v>3</v>
       </c>
       <c r="R441" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S441" t="s">
         <v>50</v>
@@ -28922,7 +28922,7 @@
         <v>3</v>
       </c>
       <c r="R442" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S442" t="s">
         <v>51</v>
@@ -28984,7 +28984,7 @@
         <v>3</v>
       </c>
       <c r="R443" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S443" t="s">
         <v>52</v>
@@ -29046,7 +29046,7 @@
         <v>3</v>
       </c>
       <c r="R444" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S444" t="s">
         <v>53</v>
@@ -29108,7 +29108,7 @@
         <v>3</v>
       </c>
       <c r="R445" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S445" t="s">
         <v>57</v>
@@ -29170,7 +29170,7 @@
         <v>3</v>
       </c>
       <c r="R446" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S446" t="s">
         <v>58</v>
@@ -29232,7 +29232,7 @@
         <v>3</v>
       </c>
       <c r="R447" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S447" t="s">
         <v>59</v>
@@ -29294,7 +29294,7 @@
         <v>4</v>
       </c>
       <c r="R448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S448" t="s">
         <v>28</v>
@@ -29356,7 +29356,7 @@
         <v>2</v>
       </c>
       <c r="R449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S449" t="s">
         <v>28</v>
@@ -29418,7 +29418,7 @@
         <v>1</v>
       </c>
       <c r="R450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S450" t="s">
         <v>28</v>
@@ -29480,7 +29480,7 @@
         <v>1</v>
       </c>
       <c r="R451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S451" t="s">
         <v>28</v>
